--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.624108</v>
+        <v>4.568826</v>
       </c>
       <c r="H2">
-        <v>25.872324</v>
+        <v>13.706478</v>
       </c>
       <c r="I2">
-        <v>0.1523716929449185</v>
+        <v>0.08414374058887295</v>
       </c>
       <c r="J2">
-        <v>0.1523716929449185</v>
+        <v>0.08414374058887293</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>148.04600870524</v>
+        <v>9.261537239932</v>
       </c>
       <c r="R2">
-        <v>1332.41407834716</v>
+        <v>83.353835159388</v>
       </c>
       <c r="S2">
-        <v>0.008538077679432859</v>
+        <v>0.0005550360573229706</v>
       </c>
       <c r="T2">
-        <v>0.008538077679432857</v>
+        <v>0.0005550360573229703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.624108</v>
+        <v>4.568826</v>
       </c>
       <c r="H3">
-        <v>25.872324</v>
+        <v>13.706478</v>
       </c>
       <c r="I3">
-        <v>0.1523716929449185</v>
+        <v>0.08414374058887295</v>
       </c>
       <c r="J3">
-        <v>0.1523716929449185</v>
+        <v>0.08414374058887293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>2211.603385179642</v>
+        <v>1171.649409758872</v>
       </c>
       <c r="R3">
-        <v>19904.43046661678</v>
+        <v>10544.84468782985</v>
       </c>
       <c r="S3">
-        <v>0.1275471163586466</v>
+        <v>0.07021595358419402</v>
       </c>
       <c r="T3">
-        <v>0.1275471163586466</v>
+        <v>0.07021595358419401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.624108</v>
+        <v>4.568826</v>
       </c>
       <c r="H4">
-        <v>25.872324</v>
+        <v>13.706478</v>
       </c>
       <c r="I4">
-        <v>0.1523716929449185</v>
+        <v>0.08414374058887295</v>
       </c>
       <c r="J4">
-        <v>0.1523716929449185</v>
+        <v>0.08414374058887293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>282.3997683633093</v>
+        <v>223.1426756247741</v>
       </c>
       <c r="R4">
-        <v>2541.597915269784</v>
+        <v>2008.284080622966</v>
       </c>
       <c r="S4">
-        <v>0.01628649890683908</v>
+        <v>0.01337275094735596</v>
       </c>
       <c r="T4">
-        <v>0.01628649890683908</v>
+        <v>0.01337275094735595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>107.925888</v>
       </c>
       <c r="I5">
-        <v>0.6356155043181922</v>
+        <v>0.6625544448906389</v>
       </c>
       <c r="J5">
-        <v>0.6356155043181921</v>
+        <v>0.6625544448906389</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>617.5709980428802</v>
+        <v>72.92607414280533</v>
       </c>
       <c r="R5">
-        <v>5558.138982385922</v>
+        <v>656.334667285248</v>
       </c>
       <c r="S5">
-        <v>0.03561642221880688</v>
+        <v>0.00437039765858162</v>
       </c>
       <c r="T5">
-        <v>0.03561642221880688</v>
+        <v>0.00437039765858162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>107.925888</v>
       </c>
       <c r="I6">
-        <v>0.6356155043181922</v>
+        <v>0.6625544448906389</v>
       </c>
       <c r="J6">
-        <v>0.6356155043181921</v>
+        <v>0.6625544448906389</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>9225.659791881044</v>
@@ -818,10 +818,10 @@
         <v>83030.93812692941</v>
       </c>
       <c r="S6">
-        <v>0.5320602739377513</v>
+        <v>0.5528859523461039</v>
       </c>
       <c r="T6">
-        <v>0.5320602739377513</v>
+        <v>0.5528859523461038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>107.925888</v>
       </c>
       <c r="I7">
-        <v>0.6356155043181922</v>
+        <v>0.6625544448906389</v>
       </c>
       <c r="J7">
-        <v>0.6356155043181921</v>
+        <v>0.6625544448906389</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>1178.025049918378</v>
+        <v>1757.043014076971</v>
       </c>
       <c r="R7">
-        <v>10602.22544926541</v>
+        <v>15813.38712669274</v>
       </c>
       <c r="S7">
-        <v>0.06793880816163392</v>
+        <v>0.1052980948859534</v>
       </c>
       <c r="T7">
-        <v>0.0679388081616339</v>
+        <v>0.1052980948859533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.999744</v>
+        <v>13.75374933333333</v>
       </c>
       <c r="H8">
-        <v>35.999232</v>
+        <v>41.261248</v>
       </c>
       <c r="I8">
-        <v>0.2120128027368892</v>
+        <v>0.2533018145204882</v>
       </c>
       <c r="J8">
-        <v>0.2120128027368892</v>
+        <v>0.2533018145204882</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>205.9939653683201</v>
+        <v>27.88043616442311</v>
       </c>
       <c r="R8">
-        <v>1853.94568831488</v>
+        <v>250.923925479808</v>
       </c>
       <c r="S8">
-        <v>0.01188003981458817</v>
+        <v>0.001670850849514026</v>
       </c>
       <c r="T8">
-        <v>0.01188003981458817</v>
+        <v>0.001670850849514025</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.999744</v>
+        <v>13.75374933333333</v>
       </c>
       <c r="H9">
-        <v>35.999232</v>
+        <v>41.261248</v>
       </c>
       <c r="I9">
-        <v>0.2120128027368892</v>
+        <v>0.2533018145204882</v>
       </c>
       <c r="J9">
-        <v>0.2120128027368892</v>
+        <v>0.2533018145204882</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>3077.266014257834</v>
+        <v>3527.070693515463</v>
       </c>
       <c r="R9">
-        <v>27695.39412832051</v>
+        <v>31743.63624163917</v>
       </c>
       <c r="S9">
-        <v>0.1774714259424825</v>
+        <v>0.2113743497340395</v>
       </c>
       <c r="T9">
-        <v>0.1774714259424825</v>
+        <v>0.2113743497340395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.999744</v>
+        <v>13.75374933333333</v>
       </c>
       <c r="H10">
-        <v>35.999232</v>
+        <v>41.261248</v>
       </c>
       <c r="I10">
-        <v>0.2120128027368892</v>
+        <v>0.2533018145204882</v>
       </c>
       <c r="J10">
-        <v>0.2120128027368892</v>
+        <v>0.2533018145204882</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>392.9362811805013</v>
+        <v>671.7367713527397</v>
       </c>
       <c r="R10">
-        <v>3536.426530624512</v>
+        <v>6045.630942174657</v>
       </c>
       <c r="S10">
-        <v>0.02266133697981853</v>
+        <v>0.04025661393693471</v>
       </c>
       <c r="T10">
-        <v>0.02266133697981853</v>
+        <v>0.04025661393693469</v>
       </c>
     </row>
   </sheetData>
